--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\PycharmProjects\POO_ecole_absence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DE2ACA1F-A6C0-43B0-8458-5F55DE71A337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D25A855-7228-46B4-8C01-58EC6CE7A5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8928"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Absence Prof" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,7 +405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\PycharmProjects\POO_ecole_absence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D25A855-7228-46B4-8C01-58EC6CE7A5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40276C1-C914-4581-97D6-BCF4D4FF3ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Nom </t>
   </si>
@@ -54,19 +54,36 @@
   </si>
   <si>
     <t xml:space="preserve">Gabriel </t>
+  </si>
+  <si>
+    <t>damien</t>
+  </si>
+  <si>
+    <t>roger</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>basile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,9 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,18 +426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C65536"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -439,7 +459,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -450,7 +470,28 @@
         <v>45080</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\PycharmProjects\POO_ecole_absence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40276C1-C914-4581-97D6-BCF4D4FF3ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F456BD-32D1-4099-8852-A1702389E5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Absence Prof" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Nom </t>
   </si>
@@ -56,16 +56,10 @@
     <t xml:space="preserve">Gabriel </t>
   </si>
   <si>
-    <t>damien</t>
-  </si>
-  <si>
-    <t>roger</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
-    <t>basile</t>
+    <t xml:space="preserve">Camur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdullah </t>
   </si>
 </sst>
 </file>
@@ -428,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -471,24 +465,24 @@
       </c>
     </row>
     <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45080</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\PycharmProjects\POO_ecole_absence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F456BD-32D1-4099-8852-A1702389E5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88B6314-D037-4E34-AAE7-E23974F66A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Nom </t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t xml:space="preserve">Abdullah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerard </t>
   </si>
 </sst>
 </file>
@@ -422,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -476,7 +482,15 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="2"/>
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45080</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="2"/>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\PycharmProjects\POO_ecole_absence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88B6314-D037-4E34-AAE7-E23974F66A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD364274-2FC1-4A68-A088-B9A29E09CCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1032" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Absence Prof" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,10 @@
     <t xml:space="preserve">Abdullah </t>
   </si>
   <si>
-    <t xml:space="preserve">anao </t>
-  </si>
-  <si>
     <t xml:space="preserve">gerard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rober </t>
   </si>
 </sst>
 </file>
@@ -483,10 +483,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>45080</v>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\PycharmProjects\POO_ecole_absence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD364274-2FC1-4A68-A088-B9A29E09CCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A23E9A7-6FDA-486E-AFDB-F135147B5A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="1032" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Nom </t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">gerard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rober </t>
   </si>
 </sst>
 </file>
@@ -482,9 +479,6 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\PycharmProjects\POO_ecole_absence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A23E9A7-6FDA-486E-AFDB-F135147B5A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D051886B-9723-455B-B695-3BE348454958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1032" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Absence Prof" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Nom </t>
   </si>
@@ -63,13 +63,16 @@
   </si>
   <si>
     <t xml:space="preserve">gerard </t>
+  </si>
+  <si>
+    <t>durak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,8 +82,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -423,74 +428,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>44966</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>45080</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>45080</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>45080</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="2"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
